--- a/timeTabular-structure.xlsx
+++ b/timeTabular-structure.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\venka\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\venka\OneDrive\Desktop\TimeTabular\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58A05F68-058C-48EE-9943-0E79EBB6FD66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15B2F660-B662-4938-832C-1881F4EF8399}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7237B49F-F46B-456A-897D-88F29124384A}"/>
   </bookViews>
@@ -534,28 +534,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EC8B9EF-0AD2-4E19-A2AB-A8D1B65202A4}">
   <dimension ref="A1:Q11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.88671875" customWidth="1"/>
-    <col min="3" max="3" width="10.88671875" customWidth="1"/>
-    <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="6" max="6" width="10.33203125" customWidth="1"/>
-    <col min="7" max="7" width="9.109375" customWidth="1"/>
-    <col min="8" max="8" width="11.77734375" customWidth="1"/>
-    <col min="9" max="9" width="10.44140625" customWidth="1"/>
+    <col min="2" max="2" width="11.109375" customWidth="1"/>
+    <col min="3" max="3" width="9.88671875" customWidth="1"/>
+    <col min="4" max="4" width="12.44140625" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" customWidth="1"/>
+    <col min="6" max="6" width="10.109375" customWidth="1"/>
+    <col min="7" max="7" width="8.5546875" customWidth="1"/>
+    <col min="8" max="8" width="11.21875" customWidth="1"/>
+    <col min="9" max="9" width="10" customWidth="1"/>
     <col min="10" max="10" width="8.33203125" customWidth="1"/>
     <col min="11" max="11" width="7.6640625" customWidth="1"/>
     <col min="12" max="12" width="9.44140625" customWidth="1"/>
     <col min="13" max="13" width="8.109375" customWidth="1"/>
     <col min="14" max="14" width="12.109375" customWidth="1"/>
-    <col min="15" max="15" width="11.44140625" customWidth="1"/>
-    <col min="16" max="16" width="14.109375" customWidth="1"/>
-    <col min="17" max="17" width="12.77734375" customWidth="1"/>
+    <col min="15" max="15" width="10.88671875" customWidth="1"/>
+    <col min="16" max="16" width="13.44140625" customWidth="1"/>
+    <col min="17" max="17" width="12" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">

--- a/timeTabular-structure.xlsx
+++ b/timeTabular-structure.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\venka\OneDrive\Desktop\TimeTabular\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15B2F660-B662-4938-832C-1881F4EF8399}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E099BB86-B24C-478D-A80D-89EF467322BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7237B49F-F46B-456A-897D-88F29124384A}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>branches</t>
   </si>
@@ -166,6 +166,9 @@
   </si>
   <si>
     <t>ECE-sections</t>
+  </si>
+  <si>
+    <t>TotalPeriodsPerDay</t>
   </si>
 </sst>
 </file>
@@ -532,10 +535,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EC8B9EF-0AD2-4E19-A2AB-A8D1B65202A4}">
-  <dimension ref="A1:Q11"/>
+  <dimension ref="A1:R11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="R3" sqref="R3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -558,7 +561,7 @@
     <col min="17" max="17" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -610,8 +613,11 @@
       <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R1" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -663,8 +669,11 @@
       <c r="Q2" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -717,7 +726,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -770,7 +779,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -823,7 +832,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="F6">
         <v>5</v>
       </c>
@@ -861,7 +870,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="F7">
         <v>6</v>
       </c>
@@ -887,7 +896,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="F8">
         <v>7</v>
       </c>
@@ -909,7 +918,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="F9">
         <v>8</v>
       </c>
@@ -923,7 +932,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="F10">
         <v>9</v>
       </c>
@@ -937,7 +946,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="F11">
         <v>10</v>
       </c>
